--- a/fuzzy_stability_analysis/results/fuz_stability_link/M/fuzziness_quantiles.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/M/fuzziness_quantiles.xlsx
@@ -27,22 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
@@ -51,160 +45,166 @@
     <t>st_1_thr_0.5</t>
   </si>
   <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
+  </si>
+  <si>
     <t>n_obs</t>
   </si>
   <si>
     <t>fuzz_quantile</t>
   </si>
   <si>
-    <t>(0.00276, 0.0211]</t>
-  </si>
-  <si>
-    <t>(0.0211, 0.0316]</t>
-  </si>
-  <si>
-    <t>(0.0316, 0.0457]</t>
-  </si>
-  <si>
-    <t>(0.0457, 0.0717]</t>
-  </si>
-  <si>
-    <t>(0.0717, 0.0993]</t>
-  </si>
-  <si>
-    <t>(0.0993, 0.144]</t>
-  </si>
-  <si>
-    <t>(0.144, 0.207]</t>
-  </si>
-  <si>
-    <t>(0.207, 0.31]</t>
-  </si>
-  <si>
-    <t>(0.31, 0.51]</t>
-  </si>
-  <si>
-    <t>(0.51, 0.746]</t>
-  </si>
-  <si>
-    <t>(0.0711, 0.158]</t>
-  </si>
-  <si>
-    <t>(0.158, 0.198]</t>
-  </si>
-  <si>
-    <t>(0.198, 0.252]</t>
-  </si>
-  <si>
-    <t>(0.252, 0.31]</t>
-  </si>
-  <si>
-    <t>(0.31, 0.358]</t>
-  </si>
-  <si>
-    <t>(0.358, 0.427]</t>
-  </si>
-  <si>
-    <t>(0.427, 0.537]</t>
-  </si>
-  <si>
-    <t>(0.537, 0.647]</t>
-  </si>
-  <si>
-    <t>(0.647, 0.773]</t>
-  </si>
-  <si>
-    <t>(0.773, 0.93]</t>
-  </si>
-  <si>
-    <t>(0.235, 0.361]</t>
-  </si>
-  <si>
-    <t>(0.361, 0.42]</t>
-  </si>
-  <si>
-    <t>(0.42, 0.463]</t>
-  </si>
-  <si>
-    <t>(0.463, 0.52]</t>
-  </si>
-  <si>
-    <t>(0.52, 0.573]</t>
-  </si>
-  <si>
-    <t>(0.573, 0.635]</t>
-  </si>
-  <si>
-    <t>(0.635, 0.735]</t>
-  </si>
-  <si>
-    <t>(0.735, 0.81]</t>
-  </si>
-  <si>
-    <t>(0.81, 0.867]</t>
-  </si>
-  <si>
-    <t>(0.867, 0.973]</t>
-  </si>
-  <si>
-    <t>(0.414, 0.543]</t>
-  </si>
-  <si>
-    <t>(0.543, 0.586]</t>
-  </si>
-  <si>
-    <t>(0.586, 0.634]</t>
-  </si>
-  <si>
-    <t>(0.634, 0.674]</t>
-  </si>
-  <si>
-    <t>(0.674, 0.714]</t>
-  </si>
-  <si>
-    <t>(0.714, 0.768]</t>
-  </si>
-  <si>
-    <t>(0.768, 0.84]</t>
-  </si>
-  <si>
-    <t>(0.84, 0.883]</t>
-  </si>
-  <si>
-    <t>(0.883, 0.934]</t>
-  </si>
-  <si>
-    <t>(0.934, 0.984]</t>
-  </si>
-  <si>
-    <t>(0.472, 0.599]</t>
-  </si>
-  <si>
-    <t>(0.599, 0.651]</t>
-  </si>
-  <si>
-    <t>(0.651, 0.683]</t>
-  </si>
-  <si>
-    <t>(0.683, 0.728]</t>
-  </si>
-  <si>
-    <t>(0.728, 0.758]</t>
-  </si>
-  <si>
-    <t>(0.758, 0.797]</t>
-  </si>
-  <si>
-    <t>(0.797, 0.847]</t>
-  </si>
-  <si>
-    <t>(0.847, 0.875]</t>
-  </si>
-  <si>
-    <t>(0.875, 0.923]</t>
-  </si>
-  <si>
-    <t>(0.923, 0.995]</t>
+    <t>(0.0015, 0.0184]</t>
+  </si>
+  <si>
+    <t>(0.0184, 0.0249]</t>
+  </si>
+  <si>
+    <t>(0.0249, 0.0376]</t>
+  </si>
+  <si>
+    <t>(0.0376, 0.0478]</t>
+  </si>
+  <si>
+    <t>(0.0478, 0.0561]</t>
+  </si>
+  <si>
+    <t>(0.0561, 0.0792]</t>
+  </si>
+  <si>
+    <t>(0.0792, 0.119]</t>
+  </si>
+  <si>
+    <t>(0.119, 0.193]</t>
+  </si>
+  <si>
+    <t>(0.193, 0.323]</t>
+  </si>
+  <si>
+    <t>(0.323, 0.891]</t>
+  </si>
+  <si>
+    <t>(0.0492, 0.13]</t>
+  </si>
+  <si>
+    <t>(0.13, 0.162]</t>
+  </si>
+  <si>
+    <t>(0.162, 0.2]</t>
+  </si>
+  <si>
+    <t>(0.2, 0.23]</t>
+  </si>
+  <si>
+    <t>(0.23, 0.259]</t>
+  </si>
+  <si>
+    <t>(0.259, 0.318]</t>
+  </si>
+  <si>
+    <t>(0.318, 0.4]</t>
+  </si>
+  <si>
+    <t>(0.4, 0.505]</t>
+  </si>
+  <si>
+    <t>(0.505, 0.601]</t>
+  </si>
+  <si>
+    <t>(0.601, 0.961]</t>
+  </si>
+  <si>
+    <t>(0.18, 0.303]</t>
+  </si>
+  <si>
+    <t>(0.303, 0.354]</t>
+  </si>
+  <si>
+    <t>(0.354, 0.396]</t>
+  </si>
+  <si>
+    <t>(0.396, 0.44]</t>
+  </si>
+  <si>
+    <t>(0.44, 0.489]</t>
+  </si>
+  <si>
+    <t>(0.489, 0.548]</t>
+  </si>
+  <si>
+    <t>(0.548, 0.624]</t>
+  </si>
+  <si>
+    <t>(0.624, 0.705]</t>
+  </si>
+  <si>
+    <t>(0.705, 0.789]</t>
+  </si>
+  <si>
+    <t>(0.789, 0.982]</t>
+  </si>
+  <si>
+    <t>(0.345, 0.466]</t>
+  </si>
+  <si>
+    <t>(0.466, 0.525]</t>
+  </si>
+  <si>
+    <t>(0.525, 0.562]</t>
+  </si>
+  <si>
+    <t>(0.562, 0.608]</t>
+  </si>
+  <si>
+    <t>(0.608, 0.651]</t>
+  </si>
+  <si>
+    <t>(0.651, 0.702]</t>
+  </si>
+  <si>
+    <t>(0.702, 0.765]</t>
+  </si>
+  <si>
+    <t>(0.765, 0.814]</t>
+  </si>
+  <si>
+    <t>(0.814, 0.878]</t>
+  </si>
+  <si>
+    <t>(0.878, 0.991]</t>
+  </si>
+  <si>
+    <t>(0.563, 0.671]</t>
+  </si>
+  <si>
+    <t>(0.671, 0.709]</t>
+  </si>
+  <si>
+    <t>(0.709, 0.744]</t>
+  </si>
+  <si>
+    <t>(0.744, 0.774]</t>
+  </si>
+  <si>
+    <t>(0.774, 0.804]</t>
+  </si>
+  <si>
+    <t>(0.804, 0.838]</t>
+  </si>
+  <si>
+    <t>(0.838, 0.892]</t>
+  </si>
+  <si>
+    <t>(0.892, 0.92]</t>
+  </si>
+  <si>
+    <t>(0.92, 0.959]</t>
+  </si>
+  <si>
+    <t>(0.959, 0.989]</t>
   </si>
   <si>
     <t>(0.673, 0.759]</t>
@@ -237,154 +237,154 @@
     <t>(0.972, 0.993]</t>
   </si>
   <si>
-    <t>(0.0727, 0.625]</t>
-  </si>
-  <si>
-    <t>(0.625, 0.824]</t>
-  </si>
-  <si>
-    <t>(0.824, 0.906]</t>
+    <t>(0.00415, 0.79]</t>
+  </si>
+  <si>
+    <t>(0.79, 0.906]</t>
   </si>
   <si>
     <t>(0.906, 0.942]</t>
   </si>
   <si>
-    <t>(0.942, 0.962]</t>
-  </si>
-  <si>
-    <t>(0.962, 0.975]</t>
-  </si>
-  <si>
-    <t>(0.975, 0.983]</t>
-  </si>
-  <si>
-    <t>(0.983, 0.989]</t>
-  </si>
-  <si>
-    <t>(0.989, 0.994]</t>
+    <t>(0.942, 0.967]</t>
+  </si>
+  <si>
+    <t>(0.967, 0.979]</t>
+  </si>
+  <si>
+    <t>(0.979, 0.983]</t>
+  </si>
+  <si>
+    <t>(0.983, 0.987]</t>
+  </si>
+  <si>
+    <t>(0.987, 0.992]</t>
+  </si>
+  <si>
+    <t>(0.992, 0.994]</t>
   </si>
   <si>
     <t>(0.994, 0.999]</t>
   </si>
   <si>
-    <t>(0.0466, 0.306]</t>
-  </si>
-  <si>
-    <t>(0.306, 0.501]</t>
-  </si>
-  <si>
-    <t>(0.501, 0.663]</t>
-  </si>
-  <si>
-    <t>(0.663, 0.765]</t>
-  </si>
-  <si>
-    <t>(0.765, 0.817]</t>
-  </si>
-  <si>
-    <t>(0.817, 0.844]</t>
-  </si>
-  <si>
-    <t>(0.844, 0.88]</t>
-  </si>
-  <si>
-    <t>(0.88, 0.907]</t>
-  </si>
-  <si>
-    <t>(0.907, 0.935]</t>
-  </si>
-  <si>
-    <t>(0.935, 0.976]</t>
-  </si>
-  <si>
-    <t>(0.009399999999999999, 0.161]</t>
-  </si>
-  <si>
-    <t>(0.161, 0.301]</t>
-  </si>
-  <si>
-    <t>(0.301, 0.417]</t>
-  </si>
-  <si>
-    <t>(0.417, 0.57]</t>
-  </si>
-  <si>
-    <t>(0.57, 0.648]</t>
-  </si>
-  <si>
-    <t>(0.648, 0.688]</t>
-  </si>
-  <si>
-    <t>(0.688, 0.734]</t>
-  </si>
-  <si>
-    <t>(0.734, 0.769]</t>
-  </si>
-  <si>
-    <t>(0.769, 0.808]</t>
-  </si>
-  <si>
-    <t>(0.808, 0.9]</t>
-  </si>
-  <si>
-    <t>(0.00182, 0.0928]</t>
-  </si>
-  <si>
-    <t>(0.0928, 0.171]</t>
-  </si>
-  <si>
-    <t>(0.171, 0.268]</t>
-  </si>
-  <si>
-    <t>(0.268, 0.422]</t>
-  </si>
-  <si>
-    <t>(0.422, 0.495]</t>
-  </si>
-  <si>
-    <t>(0.495, 0.547]</t>
-  </si>
-  <si>
-    <t>(0.547, 0.588]</t>
-  </si>
-  <si>
-    <t>(0.588, 0.623]</t>
-  </si>
-  <si>
-    <t>(0.623, 0.67]</t>
-  </si>
-  <si>
-    <t>(0.67, 0.788]</t>
-  </si>
-  <si>
-    <t>(0.0149, 0.207]</t>
-  </si>
-  <si>
-    <t>(0.207, 0.291]</t>
-  </si>
-  <si>
-    <t>(0.291, 0.342]</t>
-  </si>
-  <si>
-    <t>(0.342, 0.414]</t>
-  </si>
-  <si>
-    <t>(0.414, 0.469]</t>
-  </si>
-  <si>
-    <t>(0.469, 0.512]</t>
-  </si>
-  <si>
-    <t>(0.512, 0.559]</t>
-  </si>
-  <si>
-    <t>(0.559, 0.596]</t>
-  </si>
-  <si>
-    <t>(0.596, 0.648]</t>
-  </si>
-  <si>
-    <t>(0.648, 0.749]</t>
+    <t>(0.0269, 0.53]</t>
+  </si>
+  <si>
+    <t>(0.53, 0.681]</t>
+  </si>
+  <si>
+    <t>(0.681, 0.762]</t>
+  </si>
+  <si>
+    <t>(0.762, 0.834]</t>
+  </si>
+  <si>
+    <t>(0.834, 0.874]</t>
+  </si>
+  <si>
+    <t>(0.874, 0.892]</t>
+  </si>
+  <si>
+    <t>(0.892, 0.91]</t>
+  </si>
+  <si>
+    <t>(0.91, 0.931]</t>
+  </si>
+  <si>
+    <t>(0.931, 0.947]</t>
+  </si>
+  <si>
+    <t>(0.947, 0.983]</t>
+  </si>
+  <si>
+    <t>(0.0266, 0.361]</t>
+  </si>
+  <si>
+    <t>(0.361, 0.488]</t>
+  </si>
+  <si>
+    <t>(0.488, 0.576]</t>
+  </si>
+  <si>
+    <t>(0.576, 0.67]</t>
+  </si>
+  <si>
+    <t>(0.67, 0.717]</t>
+  </si>
+  <si>
+    <t>(0.717, 0.755]</t>
+  </si>
+  <si>
+    <t>(0.755, 0.786]</t>
+  </si>
+  <si>
+    <t>(0.786, 0.821]</t>
+  </si>
+  <si>
+    <t>(0.821, 0.857]</t>
+  </si>
+  <si>
+    <t>(0.857, 0.924]</t>
+  </si>
+  <si>
+    <t>(0.0202, 0.265]</t>
+  </si>
+  <si>
+    <t>(0.265, 0.362]</t>
+  </si>
+  <si>
+    <t>(0.362, 0.437]</t>
+  </si>
+  <si>
+    <t>(0.437, 0.531]</t>
+  </si>
+  <si>
+    <t>(0.531, 0.578]</t>
+  </si>
+  <si>
+    <t>(0.578, 0.629]</t>
+  </si>
+  <si>
+    <t>(0.629, 0.662]</t>
+  </si>
+  <si>
+    <t>(0.662, 0.703]</t>
+  </si>
+  <si>
+    <t>(0.703, 0.749]</t>
+  </si>
+  <si>
+    <t>(0.749, 0.833]</t>
+  </si>
+  <si>
+    <t>(0.0002099999999999999, 0.0678]</t>
+  </si>
+  <si>
+    <t>(0.0678, 0.123]</t>
+  </si>
+  <si>
+    <t>(0.123, 0.199]</t>
+  </si>
+  <si>
+    <t>(0.199, 0.308]</t>
+  </si>
+  <si>
+    <t>(0.308, 0.385]</t>
+  </si>
+  <si>
+    <t>(0.385, 0.434]</t>
+  </si>
+  <si>
+    <t>(0.434, 0.473]</t>
+  </si>
+  <si>
+    <t>(0.473, 0.509]</t>
+  </si>
+  <si>
+    <t>(0.509, 0.552]</t>
+  </si>
+  <si>
+    <t>(0.552, 0.673]</t>
   </si>
   <si>
     <t>(0.00092, 0.0448]</t>
@@ -818,25 +818,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="G2">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="H2">
-        <v>0.994</v>
+        <v>0.98</v>
       </c>
       <c r="I2">
-        <v>0.987</v>
+        <v>0.954</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -850,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="G3">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="H3">
-        <v>0.996</v>
+        <v>0.976</v>
       </c>
       <c r="I3">
-        <v>0.99</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -882,25 +882,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E4">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="F4">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G4">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="H4">
-        <v>0.992</v>
+        <v>0.97</v>
       </c>
       <c r="I4">
-        <v>0.982</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -914,25 +914,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="E5">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="F5">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="H5">
-        <v>0.991</v>
+        <v>0.96</v>
       </c>
       <c r="I5">
-        <v>0.982</v>
+        <v>0.921</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -943,28 +943,28 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.999</v>
+      </c>
+      <c r="C6">
         <v>0.997</v>
       </c>
-      <c r="C6">
-        <v>0.991</v>
-      </c>
       <c r="D6">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
       <c r="E6">
-        <v>0.98</v>
+        <v>0.969</v>
       </c>
       <c r="F6">
-        <v>0.995</v>
+        <v>0.988</v>
       </c>
       <c r="G6">
-        <v>0.988</v>
+        <v>0.982</v>
       </c>
       <c r="H6">
-        <v>0.98</v>
+        <v>0.964</v>
       </c>
       <c r="I6">
-        <v>0.97</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -975,28 +975,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.979</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.978</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.977</v>
+        <v>0.994</v>
       </c>
       <c r="E7">
         <v>0.975</v>
       </c>
       <c r="F7">
-        <v>0.977</v>
+        <v>0.988</v>
       </c>
       <c r="G7">
-        <v>0.966</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.962</v>
+        <v>0.974</v>
       </c>
       <c r="I7">
-        <v>0.957</v>
+        <v>0.948</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -1007,28 +1007,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C8">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="D8">
-        <v>0.989</v>
+        <v>0.971</v>
       </c>
       <c r="E8">
-        <v>0.975</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F8">
-        <v>0.996</v>
+        <v>0.982</v>
       </c>
       <c r="G8">
-        <v>0.982</v>
+        <v>0.971</v>
       </c>
       <c r="H8">
-        <v>0.972</v>
+        <v>0.946</v>
       </c>
       <c r="I8">
-        <v>0.956</v>
+        <v>0.907</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -1039,28 +1039,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C9">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="D9">
-        <v>0.993</v>
+        <v>0.97</v>
       </c>
       <c r="E9">
-        <v>0.984</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F9">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="G9">
-        <v>0.986</v>
+        <v>0.969</v>
       </c>
       <c r="H9">
-        <v>0.977</v>
+        <v>0.946</v>
       </c>
       <c r="I9">
-        <v>0.965</v>
+        <v>0.906</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1071,28 +1071,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="C10">
-        <v>0.983</v>
+        <v>0.956</v>
       </c>
       <c r="D10">
-        <v>0.967</v>
+        <v>0.921</v>
       </c>
       <c r="E10">
-        <v>0.952</v>
+        <v>0.858</v>
       </c>
       <c r="F10">
-        <v>0.99</v>
+        <v>0.959</v>
       </c>
       <c r="G10">
-        <v>0.974</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="H10">
-        <v>0.951</v>
+        <v>0.895</v>
       </c>
       <c r="I10">
-        <v>0.931</v>
+        <v>0.837</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -1103,28 +1103,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C11">
-        <v>0.999</v>
+        <v>0.922</v>
       </c>
       <c r="D11">
-        <v>0.997</v>
+        <v>0.894</v>
       </c>
       <c r="E11">
-        <v>0.989</v>
+        <v>0.833</v>
       </c>
       <c r="F11">
-        <v>0.992</v>
+        <v>0.929</v>
       </c>
       <c r="G11">
-        <v>0.986</v>
+        <v>0.907</v>
       </c>
       <c r="H11">
-        <v>0.978</v>
+        <v>0.874</v>
       </c>
       <c r="I11">
-        <v>0.967</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -1180,28 +1180,28 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>0.995</v>
+        <v>0.927</v>
       </c>
       <c r="C2">
-        <v>0.983</v>
+        <v>0.904</v>
       </c>
       <c r="D2">
-        <v>0.965</v>
+        <v>0.87</v>
       </c>
       <c r="E2">
-        <v>0.949</v>
+        <v>0.803</v>
       </c>
       <c r="F2">
-        <v>0.989</v>
+        <v>0.915</v>
       </c>
       <c r="G2">
-        <v>0.972</v>
+        <v>0.887</v>
       </c>
       <c r="H2">
-        <v>0.948</v>
+        <v>0.847</v>
       </c>
       <c r="I2">
-        <v>0.927</v>
+        <v>0.783</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -1212,28 +1212,28 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C3">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="D3">
-        <v>0.995</v>
+        <v>0.948</v>
       </c>
       <c r="E3">
-        <v>0.986</v>
+        <v>0.893</v>
       </c>
       <c r="F3">
-        <v>0.993</v>
+        <v>0.976</v>
       </c>
       <c r="G3">
-        <v>0.987</v>
+        <v>0.956</v>
       </c>
       <c r="H3">
-        <v>0.977</v>
+        <v>0.925</v>
       </c>
       <c r="I3">
-        <v>0.963</v>
+        <v>0.873</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -1244,28 +1244,28 @@
         <v>102</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C4">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="D4">
-        <v>0.985</v>
+        <v>0.96</v>
       </c>
       <c r="E4">
-        <v>0.969</v>
+        <v>0.915</v>
       </c>
       <c r="F4">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="G4">
-        <v>0.984</v>
+        <v>0.964</v>
       </c>
       <c r="H4">
-        <v>0.97</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I4">
-        <v>0.948</v>
+        <v>0.892</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -1276,28 +1276,28 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>0.977</v>
+        <v>0.996</v>
       </c>
       <c r="C5">
-        <v>0.968</v>
+        <v>0.991</v>
       </c>
       <c r="D5">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E5">
-        <v>0.947</v>
+        <v>0.951</v>
       </c>
       <c r="F5">
-        <v>0.971</v>
+        <v>0.979</v>
       </c>
       <c r="G5">
-        <v>0.96</v>
+        <v>0.973</v>
       </c>
       <c r="H5">
-        <v>0.948</v>
+        <v>0.956</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.926</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -1308,28 +1308,28 @@
         <v>104</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.96</v>
       </c>
       <c r="F6">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="I6">
-        <v>0.982</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -1343,25 +1343,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.975</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I7">
-        <v>0.987</v>
+        <v>0.945</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -1375,25 +1375,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.975</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G8">
-        <v>0.992</v>
+        <v>0.984</v>
       </c>
       <c r="H8">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="I8">
-        <v>0.984</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -1404,28 +1404,28 @@
         <v>107</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G9">
-        <v>0.994</v>
+        <v>0.983</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.968</v>
       </c>
       <c r="I9">
-        <v>0.989</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1439,25 +1439,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H10">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I10">
-        <v>0.988</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -1471,25 +1471,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G11">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="H11">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="I11">
-        <v>0.989</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -1545,28 +1545,28 @@
         <v>110</v>
       </c>
       <c r="B2">
-        <v>0.972</v>
+        <v>0.967</v>
       </c>
       <c r="C2">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="D2">
-        <v>0.927</v>
+        <v>0.922</v>
       </c>
       <c r="E2">
-        <v>0.904</v>
+        <v>0.87</v>
       </c>
       <c r="F2">
-        <v>0.97</v>
+        <v>0.948</v>
       </c>
       <c r="G2">
-        <v>0.945</v>
+        <v>0.929</v>
       </c>
       <c r="H2">
-        <v>0.915</v>
+        <v>0.892</v>
       </c>
       <c r="I2">
-        <v>0.887</v>
+        <v>0.839</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -1577,28 +1577,28 @@
         <v>111</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="D3">
-        <v>0.992</v>
+        <v>0.961</v>
       </c>
       <c r="E3">
-        <v>0.982</v>
+        <v>0.906</v>
       </c>
       <c r="F3">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="G3">
-        <v>0.987</v>
+        <v>0.965</v>
       </c>
       <c r="H3">
-        <v>0.979</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="I3">
-        <v>0.962</v>
+        <v>0.877</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -1609,28 +1609,28 @@
         <v>112</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="C4">
-        <v>0.999</v>
+        <v>0.967</v>
       </c>
       <c r="D4">
-        <v>0.993</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E4">
-        <v>0.978</v>
+        <v>0.861</v>
       </c>
       <c r="F4">
-        <v>0.993</v>
+        <v>0.967</v>
       </c>
       <c r="G4">
-        <v>0.985</v>
+        <v>0.944</v>
       </c>
       <c r="H4">
-        <v>0.974</v>
+        <v>0.906</v>
       </c>
       <c r="I4">
-        <v>0.957</v>
+        <v>0.842</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -1641,28 +1641,28 @@
         <v>113</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.947</v>
       </c>
       <c r="D5">
-        <v>0.996</v>
+        <v>0.927</v>
       </c>
       <c r="E5">
-        <v>0.991</v>
+        <v>0.887</v>
       </c>
       <c r="F5">
-        <v>0.991</v>
+        <v>0.947</v>
       </c>
       <c r="G5">
-        <v>0.983</v>
+        <v>0.93</v>
       </c>
       <c r="H5">
-        <v>0.975</v>
+        <v>0.907</v>
       </c>
       <c r="I5">
-        <v>0.97</v>
+        <v>0.869</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -1676,25 +1676,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="F6">
-        <v>0.998</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.993</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.99</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.986</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -1708,25 +1708,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.994</v>
+        <v>0.97</v>
       </c>
       <c r="I7">
-        <v>0.989</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -1740,25 +1740,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.987</v>
       </c>
       <c r="H8">
-        <v>0.99</v>
+        <v>0.976</v>
       </c>
       <c r="I8">
-        <v>0.984</v>
+        <v>0.952</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -1772,25 +1772,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E9">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="G9">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H9">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="I9">
-        <v>0.984</v>
+        <v>0.947</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -1804,25 +1804,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="F10">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="H10">
-        <v>0.993</v>
+        <v>0.979</v>
       </c>
       <c r="I10">
-        <v>0.987</v>
+        <v>0.955</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -1836,25 +1836,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F11">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H11">
-        <v>0.991</v>
+        <v>0.978</v>
       </c>
       <c r="I11">
-        <v>0.982</v>
+        <v>0.949</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -1910,28 +1910,28 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>0.997</v>
+        <v>0.973</v>
       </c>
       <c r="C2">
-        <v>0.986</v>
+        <v>0.961</v>
       </c>
       <c r="D2">
-        <v>0.973</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E2">
-        <v>0.961</v>
+        <v>0.88</v>
       </c>
       <c r="F2">
-        <v>0.991</v>
+        <v>0.955</v>
       </c>
       <c r="G2">
-        <v>0.975</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H2">
-        <v>0.955</v>
+        <v>0.902</v>
       </c>
       <c r="I2">
-        <v>0.9379999999999999</v>
+        <v>0.845</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -1942,28 +1942,28 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="C3">
-        <v>0.995</v>
+        <v>0.971</v>
       </c>
       <c r="D3">
-        <v>0.984</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E3">
-        <v>0.971</v>
+        <v>0.887</v>
       </c>
       <c r="F3">
-        <v>0.994</v>
+        <v>0.968</v>
       </c>
       <c r="G3">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.968</v>
+        <v>0.915</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <v>0.858</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -1974,28 +1974,28 @@
         <v>122</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="C4">
-        <v>0.996</v>
+        <v>0.971</v>
       </c>
       <c r="D4">
-        <v>0.988</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4">
+        <v>0.87</v>
+      </c>
+      <c r="F4">
         <v>0.971</v>
       </c>
-      <c r="F4">
-        <v>0.992</v>
-      </c>
       <c r="G4">
-        <v>0.983</v>
+        <v>0.95</v>
       </c>
       <c r="H4">
-        <v>0.971</v>
+        <v>0.914</v>
       </c>
       <c r="I4">
-        <v>0.95</v>
+        <v>0.854</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -2006,28 +2006,28 @@
         <v>123</v>
       </c>
       <c r="B5">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.968</v>
       </c>
       <c r="D5">
-        <v>0.982</v>
+        <v>0.947</v>
       </c>
       <c r="E5">
+        <v>0.903</v>
+      </c>
+      <c r="F5">
         <v>0.968</v>
       </c>
-      <c r="F5">
-        <v>0.99</v>
-      </c>
       <c r="G5">
-        <v>0.98</v>
+        <v>0.949</v>
       </c>
       <c r="H5">
-        <v>0.968</v>
+        <v>0.925</v>
       </c>
       <c r="I5">
-        <v>0.949</v>
+        <v>0.882</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -2038,28 +2038,28 @@
         <v>124</v>
       </c>
       <c r="B6">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="C6">
         <v>0.978</v>
       </c>
       <c r="D6">
-        <v>0.978</v>
+        <v>0.975</v>
       </c>
       <c r="E6">
-        <v>0.978</v>
+        <v>0.967</v>
       </c>
       <c r="F6">
-        <v>0.979</v>
+        <v>0.97</v>
       </c>
       <c r="G6">
-        <v>0.975</v>
+        <v>0.964</v>
       </c>
       <c r="H6">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="I6">
-        <v>0.964</v>
+        <v>0.92</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -2073,25 +2073,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H7">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="I7">
-        <v>0.987</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -2105,25 +2105,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.987</v>
       </c>
       <c r="H8">
-        <v>0.992</v>
+        <v>0.976</v>
       </c>
       <c r="I8">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -2137,25 +2137,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E9">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G9">
-        <v>0.993</v>
+        <v>0.985</v>
       </c>
       <c r="H9">
-        <v>0.991</v>
+        <v>0.973</v>
       </c>
       <c r="I9">
-        <v>0.985</v>
+        <v>0.947</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -2169,25 +2169,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E10">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="H10">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="I10">
-        <v>0.989</v>
+        <v>0.954</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -2201,25 +2201,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.994</v>
+        <v>0.988</v>
       </c>
       <c r="H11">
-        <v>0.992</v>
+        <v>0.978</v>
       </c>
       <c r="I11">
-        <v>0.988</v>
+        <v>0.951</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -2278,25 +2278,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="G2">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="H2">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="I2">
-        <v>0.984</v>
+        <v>0.944</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -2310,25 +2310,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="H3">
-        <v>0.996</v>
+        <v>0.975</v>
       </c>
       <c r="I3">
-        <v>0.991</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -2342,25 +2342,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F4">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G4">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="H4">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="I4">
-        <v>0.986</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -2374,25 +2374,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E5">
-        <v>0.997</v>
+        <v>0.972</v>
       </c>
       <c r="F5">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.959</v>
       </c>
       <c r="I5">
-        <v>0.984</v>
+        <v>0.922</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -2406,25 +2406,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E6">
-        <v>0.999</v>
+        <v>0.968</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.989</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -2435,28 +2435,28 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>0.992</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>0.988</v>
+        <v>0.991</v>
       </c>
       <c r="E7">
-        <v>0.983</v>
+        <v>0.97</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="G7">
-        <v>0.981</v>
+        <v>0.985</v>
       </c>
       <c r="H7">
-        <v>0.975</v>
+        <v>0.972</v>
       </c>
       <c r="I7">
-        <v>0.965</v>
+        <v>0.944</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -2467,28 +2467,28 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>0.979</v>
+        <v>0.993</v>
       </c>
       <c r="C8">
-        <v>0.973</v>
+        <v>0.986</v>
       </c>
       <c r="D8">
-        <v>0.963</v>
+        <v>0.968</v>
       </c>
       <c r="E8">
-        <v>0.949</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F8">
-        <v>0.976</v>
+        <v>0.977</v>
       </c>
       <c r="G8">
-        <v>0.962</v>
+        <v>0.967</v>
       </c>
       <c r="H8">
-        <v>0.949</v>
+        <v>0.944</v>
       </c>
       <c r="I8">
-        <v>0.931</v>
+        <v>0.91</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -2499,28 +2499,28 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C9">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="D9">
-        <v>0.997</v>
+        <v>0.964</v>
       </c>
       <c r="E9">
-        <v>0.988</v>
+        <v>0.921</v>
       </c>
       <c r="F9">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="G9">
-        <v>0.988</v>
+        <v>0.966</v>
       </c>
       <c r="H9">
-        <v>0.982</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="I9">
-        <v>0.969</v>
+        <v>0.9</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -2531,28 +2531,28 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>0.963</v>
       </c>
       <c r="C10">
-        <v>0.982</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D10">
-        <v>0.961</v>
+        <v>0.909</v>
       </c>
       <c r="E10">
-        <v>0.9409999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="F10">
-        <v>0.991</v>
+        <v>0.948</v>
       </c>
       <c r="G10">
-        <v>0.973</v>
+        <v>0.923</v>
       </c>
       <c r="H10">
-        <v>0.947</v>
+        <v>0.883</v>
       </c>
       <c r="I10">
-        <v>0.921</v>
+        <v>0.827</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -2563,28 +2563,28 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="C11">
-        <v>0.999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D11">
-        <v>0.997</v>
+        <v>0.916</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>0.853</v>
       </c>
       <c r="F11">
-        <v>0.989</v>
+        <v>0.945</v>
       </c>
       <c r="G11">
-        <v>0.983</v>
+        <v>0.925</v>
       </c>
       <c r="H11">
-        <v>0.975</v>
+        <v>0.895</v>
       </c>
       <c r="I11">
-        <v>0.966</v>
+        <v>0.837</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -2643,25 +2643,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G2">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="H2">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I2">
-        <v>0.984</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -2675,25 +2675,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="H3">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="I3">
-        <v>0.989</v>
+        <v>0.947</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -2704,28 +2704,28 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H4">
-        <v>0.992</v>
+        <v>0.967</v>
       </c>
       <c r="I4">
-        <v>0.987</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -2739,25 +2739,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.975</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.967</v>
       </c>
       <c r="I5">
-        <v>0.985</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -2771,25 +2771,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.968</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G6">
-        <v>0.992</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.989</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.983</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -2800,28 +2800,28 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.97</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>0.992</v>
+        <v>0.984</v>
       </c>
       <c r="H7">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="I7">
-        <v>0.988</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -2832,28 +2832,28 @@
         <v>36</v>
       </c>
       <c r="B8">
+        <v>0.994</v>
+      </c>
+      <c r="C8">
+        <v>0.988</v>
+      </c>
+      <c r="D8">
+        <v>0.972</v>
+      </c>
+      <c r="E8">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F8">
         <v>0.977</v>
       </c>
-      <c r="C8">
-        <v>0.971</v>
-      </c>
-      <c r="D8">
-        <v>0.964</v>
-      </c>
-      <c r="E8">
-        <v>0.953</v>
-      </c>
-      <c r="F8">
-        <v>0.975</v>
-      </c>
       <c r="G8">
-        <v>0.965</v>
+        <v>0.969</v>
       </c>
       <c r="H8">
-        <v>0.953</v>
+        <v>0.949</v>
       </c>
       <c r="I8">
-        <v>0.9350000000000001</v>
+        <v>0.916</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -2864,28 +2864,28 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C9">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="D9">
-        <v>0.984</v>
+        <v>0.963</v>
       </c>
       <c r="E9">
-        <v>0.97</v>
+        <v>0.918</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.978</v>
       </c>
       <c r="G9">
-        <v>0.989</v>
+        <v>0.965</v>
       </c>
       <c r="H9">
-        <v>0.973</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I9">
-        <v>0.952</v>
+        <v>0.897</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -2896,28 +2896,28 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>0.958</v>
       </c>
       <c r="C10">
-        <v>0.98</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D10">
-        <v>0.958</v>
+        <v>0.899</v>
       </c>
       <c r="E10">
-        <v>0.9330000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="F10">
-        <v>0.988</v>
+        <v>0.944</v>
       </c>
       <c r="G10">
-        <v>0.967</v>
+        <v>0.915</v>
       </c>
       <c r="H10">
-        <v>0.9409999999999999</v>
+        <v>0.874</v>
       </c>
       <c r="I10">
-        <v>0.912</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -2928,28 +2928,28 @@
         <v>39</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.949</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="E11">
-        <v>0.996</v>
+        <v>0.864</v>
       </c>
       <c r="F11">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="G11">
-        <v>0.981</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="H11">
-        <v>0.975</v>
+        <v>0.903</v>
       </c>
       <c r="I11">
-        <v>0.971</v>
+        <v>0.845</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -3008,25 +3008,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G2">
-        <v>0.997</v>
+        <v>0.983</v>
       </c>
       <c r="H2">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I2">
-        <v>0.984</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -3040,25 +3040,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.98</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.997</v>
+        <v>0.987</v>
       </c>
       <c r="H3">
-        <v>0.995</v>
+        <v>0.974</v>
       </c>
       <c r="I3">
-        <v>0.99</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -3069,28 +3069,28 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.983</v>
       </c>
       <c r="H4">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="I4">
-        <v>0.985</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -3104,25 +3104,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G5">
-        <v>0.993</v>
+        <v>0.984</v>
       </c>
       <c r="H5">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="I5">
-        <v>0.985</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -3133,28 +3133,28 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.97</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G6">
-        <v>0.992</v>
+        <v>0.983</v>
       </c>
       <c r="H6">
-        <v>0.989</v>
+        <v>0.968</v>
       </c>
       <c r="I6">
-        <v>0.981</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -3165,28 +3165,28 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.968</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="H7">
-        <v>0.994</v>
+        <v>0.971</v>
       </c>
       <c r="I7">
-        <v>0.991</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -3197,28 +3197,28 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.979</v>
+        <v>0.993</v>
       </c>
       <c r="C8">
-        <v>0.978</v>
+        <v>0.986</v>
       </c>
       <c r="D8">
-        <v>0.973</v>
+        <v>0.97</v>
       </c>
       <c r="E8">
-        <v>0.965</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F8">
-        <v>0.979</v>
+        <v>0.977</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.968</v>
       </c>
       <c r="H8">
-        <v>0.962</v>
+        <v>0.946</v>
       </c>
       <c r="I8">
-        <v>0.947</v>
+        <v>0.912</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -3229,28 +3229,28 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="C9">
-        <v>0.99</v>
+        <v>0.969</v>
       </c>
       <c r="D9">
-        <v>0.977</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E9">
-        <v>0.958</v>
+        <v>0.894</v>
       </c>
       <c r="F9">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
       <c r="G9">
-        <v>0.984</v>
+        <v>0.949</v>
       </c>
       <c r="H9">
-        <v>0.967</v>
+        <v>0.921</v>
       </c>
       <c r="I9">
-        <v>0.9409999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -3261,28 +3261,28 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.995</v>
+        <v>0.96</v>
       </c>
       <c r="C10">
-        <v>0.98</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D10">
-        <v>0.961</v>
+        <v>0.909</v>
       </c>
       <c r="E10">
-        <v>0.9379999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="F10">
-        <v>0.987</v>
+        <v>0.947</v>
       </c>
       <c r="G10">
-        <v>0.967</v>
+        <v>0.922</v>
       </c>
       <c r="H10">
-        <v>0.944</v>
+        <v>0.884</v>
       </c>
       <c r="I10">
-        <v>0.918</v>
+        <v>0.83</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -3293,28 +3293,28 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.969</v>
       </c>
       <c r="C11">
-        <v>0.998</v>
+        <v>0.96</v>
       </c>
       <c r="D11">
-        <v>0.996</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E11">
-        <v>0.991</v>
+        <v>0.878</v>
       </c>
       <c r="F11">
-        <v>0.986</v>
+        <v>0.958</v>
       </c>
       <c r="G11">
-        <v>0.978</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H11">
-        <v>0.971</v>
+        <v>0.914</v>
       </c>
       <c r="I11">
-        <v>0.965</v>
+        <v>0.855</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -3373,25 +3373,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0.982</v>
       </c>
       <c r="H2">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="I2">
-        <v>0.982</v>
+        <v>0.931</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -3405,25 +3405,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="F3">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="H3">
-        <v>0.993</v>
+        <v>0.978</v>
       </c>
       <c r="I3">
-        <v>0.985</v>
+        <v>0.949</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -3437,25 +3437,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="F4">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H4">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="I4">
-        <v>0.985</v>
+        <v>0.947</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -3469,25 +3469,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="F5">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G5">
-        <v>0.994</v>
+        <v>0.985</v>
       </c>
       <c r="H5">
-        <v>0.99</v>
+        <v>0.971</v>
       </c>
       <c r="I5">
-        <v>0.985</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -3501,25 +3501,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.978</v>
       </c>
       <c r="F6">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="G6">
-        <v>0.992</v>
+        <v>0.982</v>
       </c>
       <c r="H6">
-        <v>0.989</v>
+        <v>0.968</v>
       </c>
       <c r="I6">
-        <v>0.982</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -3530,28 +3530,28 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="F7">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.989</v>
       </c>
       <c r="H7">
-        <v>0.989</v>
+        <v>0.975</v>
       </c>
       <c r="I7">
-        <v>0.982</v>
+        <v>0.946</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -3562,28 +3562,28 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="C8">
-        <v>0.999</v>
+        <v>0.975</v>
       </c>
       <c r="D8">
-        <v>0.993</v>
+        <v>0.952</v>
       </c>
       <c r="E8">
-        <v>0.983</v>
+        <v>0.913</v>
       </c>
       <c r="F8">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="G8">
-        <v>0.985</v>
+        <v>0.959</v>
       </c>
       <c r="H8">
-        <v>0.976</v>
+        <v>0.926</v>
       </c>
       <c r="I8">
-        <v>0.964</v>
+        <v>0.873</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -3594,28 +3594,28 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.997</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C9">
-        <v>0.991</v>
+        <v>0.927</v>
       </c>
       <c r="D9">
-        <v>0.982</v>
+        <v>0.902</v>
       </c>
       <c r="E9">
-        <v>0.967</v>
+        <v>0.86</v>
       </c>
       <c r="F9">
-        <v>0.988</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G9">
-        <v>0.977</v>
+        <v>0.912</v>
       </c>
       <c r="H9">
-        <v>0.963</v>
+        <v>0.882</v>
       </c>
       <c r="I9">
-        <v>0.947</v>
+        <v>0.835</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -3626,28 +3626,28 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>0.975</v>
+        <v>0.979</v>
       </c>
       <c r="C10">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
       <c r="D10">
-        <v>0.945</v>
+        <v>0.928</v>
       </c>
       <c r="E10">
-        <v>0.931</v>
+        <v>0.863</v>
       </c>
       <c r="F10">
-        <v>0.97</v>
+        <v>0.962</v>
       </c>
       <c r="G10">
-        <v>0.95</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H10">
-        <v>0.9320000000000001</v>
+        <v>0.907</v>
       </c>
       <c r="I10">
-        <v>0.912</v>
+        <v>0.854</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -3658,28 +3658,28 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C11">
-        <v>0.996</v>
+        <v>0.992</v>
       </c>
       <c r="D11">
-        <v>0.991</v>
+        <v>0.968</v>
       </c>
       <c r="E11">
-        <v>0.981</v>
+        <v>0.901</v>
       </c>
       <c r="F11">
-        <v>0.998</v>
+        <v>0.969</v>
       </c>
       <c r="G11">
-        <v>0.99</v>
+        <v>0.964</v>
       </c>
       <c r="H11">
-        <v>0.979</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="I11">
-        <v>0.963</v>
+        <v>0.889</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -3738,25 +3738,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0.982</v>
       </c>
       <c r="H2">
-        <v>0.991</v>
+        <v>0.967</v>
       </c>
       <c r="I2">
-        <v>0.982</v>
+        <v>0.931</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -3770,25 +3770,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H3">
-        <v>0.994</v>
+        <v>0.977</v>
       </c>
       <c r="I3">
-        <v>0.988</v>
+        <v>0.947</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -3802,25 +3802,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.993</v>
+        <v>0.985</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>0.972</v>
       </c>
       <c r="I4">
-        <v>0.985</v>
+        <v>0.944</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -3834,25 +3834,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E5">
-        <v>0.997</v>
+        <v>0.978</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G5">
-        <v>0.994</v>
+        <v>0.982</v>
       </c>
       <c r="H5">
-        <v>0.99</v>
+        <v>0.967</v>
       </c>
       <c r="I5">
-        <v>0.982</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -3866,25 +3866,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G6">
-        <v>0.994</v>
+        <v>0.986</v>
       </c>
       <c r="H6">
-        <v>0.991</v>
+        <v>0.974</v>
       </c>
       <c r="I6">
-        <v>0.986</v>
+        <v>0.947</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -3895,28 +3895,28 @@
         <v>65</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="E7">
-        <v>0.996</v>
+        <v>0.965</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.992</v>
+        <v>0.97</v>
       </c>
       <c r="I7">
-        <v>0.986</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -3927,28 +3927,28 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="C8">
-        <v>0.999</v>
+        <v>0.975</v>
       </c>
       <c r="D8">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="E8">
-        <v>0.975</v>
+        <v>0.919</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.961</v>
       </c>
       <c r="H8">
-        <v>0.981</v>
+        <v>0.93</v>
       </c>
       <c r="I8">
-        <v>0.961</v>
+        <v>0.882</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -3959,28 +3959,28 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>0.972</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C9">
-        <v>0.954</v>
+        <v>0.918</v>
       </c>
       <c r="D9">
-        <v>0.9350000000000001</v>
+        <v>0.892</v>
       </c>
       <c r="E9">
-        <v>0.918</v>
+        <v>0.848</v>
       </c>
       <c r="F9">
-        <v>0.97</v>
+        <v>0.926</v>
       </c>
       <c r="G9">
-        <v>0.95</v>
+        <v>0.903</v>
       </c>
       <c r="H9">
-        <v>0.926</v>
+        <v>0.871</v>
       </c>
       <c r="I9">
-        <v>0.903</v>
+        <v>0.823</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -3991,28 +3991,28 @@
         <v>68</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="C10">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="D10">
-        <v>0.987</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E10">
-        <v>0.969</v>
+        <v>0.876</v>
       </c>
       <c r="F10">
-        <v>0.992</v>
+        <v>0.97</v>
       </c>
       <c r="G10">
-        <v>0.982</v>
+        <v>0.949</v>
       </c>
       <c r="H10">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="I10">
-        <v>0.949</v>
+        <v>0.867</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -4023,28 +4023,28 @@
         <v>69</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C11">
-        <v>0.998</v>
+        <v>0.992</v>
       </c>
       <c r="D11">
-        <v>0.996</v>
+        <v>0.968</v>
       </c>
       <c r="E11">
-        <v>0.992</v>
+        <v>0.901</v>
       </c>
       <c r="F11">
-        <v>0.986</v>
+        <v>0.969</v>
       </c>
       <c r="G11">
-        <v>0.977</v>
+        <v>0.964</v>
       </c>
       <c r="H11">
-        <v>0.969</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="I11">
-        <v>0.964</v>
+        <v>0.889</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -4100,28 +4100,28 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.922</v>
       </c>
       <c r="C2">
-        <v>0.999</v>
+        <v>0.897</v>
       </c>
       <c r="D2">
-        <v>0.997</v>
+        <v>0.864</v>
       </c>
       <c r="E2">
-        <v>0.988</v>
+        <v>0.801</v>
       </c>
       <c r="F2">
-        <v>0.994</v>
+        <v>0.912</v>
       </c>
       <c r="G2">
-        <v>0.989</v>
+        <v>0.881</v>
       </c>
       <c r="H2">
-        <v>0.981</v>
+        <v>0.844</v>
       </c>
       <c r="I2">
-        <v>0.968</v>
+        <v>0.784</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -4132,28 +4132,28 @@
         <v>71</v>
       </c>
       <c r="B3">
-        <v>0.995</v>
+        <v>0.993</v>
       </c>
       <c r="C3">
-        <v>0.983</v>
+        <v>0.978</v>
       </c>
       <c r="D3">
-        <v>0.967</v>
+        <v>0.947</v>
       </c>
       <c r="E3">
-        <v>0.95</v>
+        <v>0.888</v>
       </c>
       <c r="F3">
-        <v>0.988</v>
+        <v>0.976</v>
       </c>
       <c r="G3">
-        <v>0.971</v>
+        <v>0.957</v>
       </c>
       <c r="H3">
-        <v>0.948</v>
+        <v>0.924</v>
       </c>
       <c r="I3">
-        <v>0.929</v>
+        <v>0.871</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -4164,28 +4164,28 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C4">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="D4">
-        <v>0.993</v>
+        <v>0.969</v>
       </c>
       <c r="E4">
-        <v>0.985</v>
+        <v>0.93</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.979</v>
       </c>
       <c r="G4">
-        <v>0.988</v>
+        <v>0.968</v>
       </c>
       <c r="H4">
-        <v>0.98</v>
+        <v>0.944</v>
       </c>
       <c r="I4">
-        <v>0.967</v>
+        <v>0.902</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -4196,28 +4196,28 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="D5">
-        <v>0.991</v>
+        <v>0.976</v>
       </c>
       <c r="E5">
-        <v>0.983</v>
+        <v>0.947</v>
       </c>
       <c r="F5">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="G5">
-        <v>0.983</v>
+        <v>0.975</v>
       </c>
       <c r="H5">
-        <v>0.975</v>
+        <v>0.952</v>
       </c>
       <c r="I5">
-        <v>0.964</v>
+        <v>0.915</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -4228,28 +4228,28 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>0.979</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.977</v>
+        <v>0.999</v>
       </c>
       <c r="D6">
-        <v>0.975</v>
+        <v>0.993</v>
       </c>
       <c r="E6">
-        <v>0.968</v>
+        <v>0.969</v>
       </c>
       <c r="F6">
-        <v>0.977</v>
+        <v>0.987</v>
       </c>
       <c r="G6">
-        <v>0.965</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="I6">
-        <v>0.951</v>
+        <v>0.944</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -4260,28 +4260,28 @@
         <v>75</v>
       </c>
       <c r="B7">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
+        <v>0.995</v>
+      </c>
+      <c r="D7">
+        <v>0.986</v>
+      </c>
+      <c r="E7">
+        <v>0.968</v>
+      </c>
+      <c r="F7">
         <v>0.991</v>
       </c>
-      <c r="D7">
-        <v>0.985</v>
-      </c>
-      <c r="E7">
-        <v>0.978</v>
-      </c>
-      <c r="F7">
-        <v>0.995</v>
-      </c>
       <c r="G7">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
       <c r="H7">
-        <v>0.977</v>
+        <v>0.965</v>
       </c>
       <c r="I7">
-        <v>0.965</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -4295,25 +4295,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.999</v>
+        <v>0.996</v>
       </c>
       <c r="D8">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="E8">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.978</v>
       </c>
       <c r="H8">
-        <v>0.991</v>
+        <v>0.962</v>
       </c>
       <c r="I8">
-        <v>0.983</v>
+        <v>0.926</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -4327,25 +4327,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E9">
-        <v>0.996</v>
+        <v>0.978</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="G9">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
       <c r="H9">
-        <v>0.992</v>
+        <v>0.971</v>
       </c>
       <c r="I9">
-        <v>0.982</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -4359,25 +4359,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G10">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="H10">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
       <c r="I10">
-        <v>0.993</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -4391,25 +4391,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E11">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F11">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="G11">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="H11">
-        <v>0.994</v>
+        <v>0.979</v>
       </c>
       <c r="I11">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -4465,28 +4465,28 @@
         <v>80</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.922</v>
       </c>
       <c r="C2">
-        <v>0.999</v>
+        <v>0.897</v>
       </c>
       <c r="D2">
-        <v>0.997</v>
+        <v>0.864</v>
       </c>
       <c r="E2">
-        <v>0.987</v>
+        <v>0.799</v>
       </c>
       <c r="F2">
-        <v>0.993</v>
+        <v>0.912</v>
       </c>
       <c r="G2">
-        <v>0.988</v>
+        <v>0.881</v>
       </c>
       <c r="H2">
-        <v>0.978</v>
+        <v>0.843</v>
       </c>
       <c r="I2">
-        <v>0.964</v>
+        <v>0.783</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -4497,28 +4497,28 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>0.995</v>
+        <v>0.993</v>
       </c>
       <c r="C3">
-        <v>0.983</v>
+        <v>0.979</v>
       </c>
       <c r="D3">
-        <v>0.965</v>
+        <v>0.947</v>
       </c>
       <c r="E3">
-        <v>0.949</v>
+        <v>0.887</v>
       </c>
       <c r="F3">
-        <v>0.989</v>
+        <v>0.977</v>
       </c>
       <c r="G3">
-        <v>0.972</v>
+        <v>0.957</v>
       </c>
       <c r="H3">
-        <v>0.949</v>
+        <v>0.923</v>
       </c>
       <c r="I3">
-        <v>0.93</v>
+        <v>0.868</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -4529,28 +4529,28 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C4">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="D4">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E4">
+        <v>0.931</v>
+      </c>
+      <c r="F4">
         <v>0.98</v>
       </c>
-      <c r="F4">
-        <v>0.994</v>
-      </c>
       <c r="G4">
-        <v>0.987</v>
+        <v>0.97</v>
       </c>
       <c r="H4">
-        <v>0.976</v>
+        <v>0.945</v>
       </c>
       <c r="I4">
-        <v>0.961</v>
+        <v>0.902</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -4561,28 +4561,28 @@
         <v>83</v>
       </c>
       <c r="B5">
-        <v>0.979</v>
+        <v>0.996</v>
       </c>
       <c r="C5">
+        <v>0.99</v>
+      </c>
+      <c r="D5">
         <v>0.975</v>
       </c>
-      <c r="D5">
-        <v>0.97</v>
-      </c>
       <c r="E5">
-        <v>0.958</v>
+        <v>0.95</v>
       </c>
       <c r="F5">
-        <v>0.975</v>
+        <v>0.983</v>
       </c>
       <c r="G5">
-        <v>0.962</v>
+        <v>0.974</v>
       </c>
       <c r="H5">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
       <c r="I5">
-        <v>0.9379999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -4593,28 +4593,28 @@
         <v>84</v>
       </c>
       <c r="B6">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="C6">
+        <v>0.999</v>
+      </c>
+      <c r="D6">
         <v>0.99</v>
       </c>
-      <c r="D6">
-        <v>0.984</v>
-      </c>
       <c r="E6">
-        <v>0.975</v>
+        <v>0.962</v>
       </c>
       <c r="F6">
-        <v>0.995</v>
+        <v>0.986</v>
       </c>
       <c r="G6">
-        <v>0.979</v>
+        <v>0.983</v>
       </c>
       <c r="H6">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.958</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -4628,25 +4628,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.971</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G7">
-        <v>0.994</v>
+        <v>0.984</v>
       </c>
       <c r="H7">
-        <v>0.991</v>
+        <v>0.971</v>
       </c>
       <c r="I7">
-        <v>0.987</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -4660,25 +4660,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="E8">
-        <v>0.997</v>
+        <v>0.975</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.98</v>
       </c>
       <c r="H8">
-        <v>0.991</v>
+        <v>0.961</v>
       </c>
       <c r="I8">
-        <v>0.984</v>
+        <v>0.924</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -4692,25 +4692,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E9">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="F9">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="G9">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="H9">
-        <v>0.994</v>
+        <v>0.97</v>
       </c>
       <c r="I9">
-        <v>0.986</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -4724,25 +4724,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="H10">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="I10">
-        <v>0.991</v>
+        <v>0.945</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -4756,25 +4756,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="H11">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="I11">
-        <v>0.988</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J11">
         <v>23</v>
@@ -4830,28 +4830,28 @@
         <v>90</v>
       </c>
       <c r="B2">
-        <v>0.998</v>
+        <v>0.922</v>
       </c>
       <c r="C2">
-        <v>0.997</v>
+        <v>0.898</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.863</v>
       </c>
       <c r="E2">
-        <v>0.977</v>
+        <v>0.795</v>
       </c>
       <c r="F2">
-        <v>0.99</v>
+        <v>0.911</v>
       </c>
       <c r="G2">
-        <v>0.984</v>
+        <v>0.88</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.841</v>
       </c>
       <c r="I2">
-        <v>0.953</v>
+        <v>0.778</v>
       </c>
       <c r="J2">
         <v>23</v>
@@ -4862,28 +4862,28 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="C3">
-        <v>0.986</v>
+        <v>0.978</v>
       </c>
       <c r="D3">
-        <v>0.972</v>
+        <v>0.948</v>
       </c>
       <c r="E3">
+        <v>0.891</v>
+      </c>
+      <c r="F3">
+        <v>0.978</v>
+      </c>
+      <c r="G3">
         <v>0.958</v>
       </c>
-      <c r="F3">
-        <v>0.992</v>
-      </c>
-      <c r="G3">
-        <v>0.977</v>
-      </c>
       <c r="H3">
-        <v>0.957</v>
+        <v>0.925</v>
       </c>
       <c r="I3">
-        <v>0.9379999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="J3">
         <v>23</v>
@@ -4894,28 +4894,28 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C4">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="D4">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="E4">
-        <v>0.982</v>
+        <v>0.928</v>
       </c>
       <c r="F4">
-        <v>0.993</v>
+        <v>0.98</v>
       </c>
       <c r="G4">
-        <v>0.985</v>
+        <v>0.97</v>
       </c>
       <c r="H4">
-        <v>0.975</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I4">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="J4">
         <v>23</v>
@@ -4926,28 +4926,28 @@
         <v>93</v>
       </c>
       <c r="B5">
+        <v>0.995</v>
+      </c>
+      <c r="C5">
+        <v>0.989</v>
+      </c>
+      <c r="D5">
         <v>0.976</v>
       </c>
-      <c r="C5">
-        <v>0.965</v>
-      </c>
-      <c r="D5">
-        <v>0.953</v>
-      </c>
       <c r="E5">
-        <v>0.9350000000000001</v>
+        <v>0.951</v>
       </c>
       <c r="F5">
-        <v>0.971</v>
+        <v>0.981</v>
       </c>
       <c r="G5">
-        <v>0.957</v>
+        <v>0.974</v>
       </c>
       <c r="H5">
-        <v>0.9409999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="I5">
-        <v>0.917</v>
+        <v>0.925</v>
       </c>
       <c r="J5">
         <v>23</v>
@@ -4958,28 +4958,28 @@
         <v>94</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.959</v>
       </c>
       <c r="F6">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="H6">
-        <v>0.99</v>
+        <v>0.965</v>
       </c>
       <c r="I6">
-        <v>0.982</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J6">
         <v>23</v>
@@ -4993,25 +4993,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.991</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.99</v>
+        <v>0.974</v>
       </c>
       <c r="I7">
-        <v>0.985</v>
+        <v>0.945</v>
       </c>
       <c r="J7">
         <v>23</v>
@@ -5025,25 +5025,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.976</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G8">
-        <v>0.993</v>
+        <v>0.984</v>
       </c>
       <c r="H8">
-        <v>0.989</v>
+        <v>0.967</v>
       </c>
       <c r="I8">
-        <v>0.984</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J8">
         <v>23</v>
@@ -5054,28 +5054,28 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.98</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.967</v>
       </c>
       <c r="I9">
-        <v>0.988</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J9">
         <v>23</v>
@@ -5089,25 +5089,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="H10">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="I10">
-        <v>0.99</v>
+        <v>0.946</v>
       </c>
       <c r="J10">
         <v>23</v>
@@ -5121,25 +5121,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="G11">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="H11">
-        <v>0.995</v>
+        <v>0.969</v>
       </c>
       <c r="I11">
-        <v>0.988</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J11">
         <v>23</v>
